--- a/3 четверть_3_Java Junior.xlsx
+++ b/3 четверть_3_Java Junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B4AEFF-B068-41CB-B9D0-3A72BAE15A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571F764-DD11-4C41-B3DF-10C5DAEEA407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21697,10 +21697,6 @@
     <t>@Slf4j</t>
   </si>
   <si>
-    <t>Предоставляет возможность логирования без написания отдельных строк кода по созданю Logger
-log.info("Входящий запрос: {}", uri);</t>
-  </si>
-  <si>
     <t xml:space="preserve">        AlexTheStudent = null;
         try (InputStream inStream = new FileInputStream("AlexTheStudent.json")) {
             AlexTheStudent = objectMapper.readValue(inStream,Student.class);
@@ -22158,35 +22154,6 @@
     <t>Аналог throws после имени метода</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ставится над методами и указывает на то, что если возникнет исключение в блоке метода и оно не будет должным образом обработано в try catch, то данное исключение необходимо пробросить выше.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@SneakyThrows(UnsupportedEncodingException.class)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> В скобках можно указать конкретное исключение, которое необходимо пробросить выше.</t>
-    </r>
-  </si>
-  <si>
     <t>Пример получения List из Iterable&lt;&gt;
 StreamSupport.stream(iterable.spliterator(), false).toList();</t>
   </si>
@@ -24659,6 +24626,111 @@
     // standard setters and getters
     // also override equals and hashcode
 }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ставится над методами и указывает на то, что если возникнет исключение в блоке метода и оно не будет должным образом обработано в try catch, то есть данное исключение необходимо пробросить выше.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SneakyThrows(UnsupportedEncodingException.class)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В скобках можно указать конкретное исключение, которое необходимо пробросить выше.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Предоставляет возможность логирования без написания отдельных строк кода по созданю Logger
+Вариант 1 - log.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("Входящий запрос: {}", uri);
+Вариант 2 - log.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atLevel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Logger.Debug).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("…");</t>
     </r>
   </si>
 </sst>
@@ -25517,7 +25589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -26258,25 +26330,25 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26285,19 +26357,19 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26306,28 +26378,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -27946,8 +28012,8 @@
   </sheetPr>
   <dimension ref="A1:V672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A593" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C596" sqref="C596"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28800,7 +28866,7 @@
       <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:22" ht="43.5">
-      <c r="A79" s="260" t="s">
+      <c r="A79" s="258" t="s">
         <v>904</v>
       </c>
       <c r="C79" s="184" t="s">
@@ -28843,16 +28909,16 @@
     </row>
     <row r="83" spans="1:22" ht="29.5" thickBot="1">
       <c r="A83" s="111" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B83" s="112"/>
-      <c r="C83" s="261" t="s">
-        <v>1304</v>
+      <c r="C83" s="259" t="s">
+        <v>1302</v>
       </c>
       <c r="D83" s="114"/>
     </row>
     <row r="84" spans="1:22" ht="58">
-      <c r="A84" s="259" t="s">
+      <c r="A84" s="257" t="s">
         <v>581</v>
       </c>
       <c r="C84" s="109" t="s">
@@ -29583,7 +29649,7 @@
       <c r="B153" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C153" s="263" t="s">
+      <c r="C153" s="261" t="s">
         <v>910</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -29710,10 +29776,10 @@
     <row r="170" spans="1:4" ht="174">
       <c r="A170" s="32"/>
       <c r="C170" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -29783,7 +29849,7 @@
     </row>
     <row r="180" spans="1:22" ht="87">
       <c r="C180" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -30756,23 +30822,23 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="43.5">
+    <row r="291" spans="1:22" ht="58">
       <c r="A291" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="C291" s="248" t="s">
-        <v>1284</v>
+      <c r="C291" s="269" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="72.5">
       <c r="A292" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C292" s="258" t="s">
-        <v>1303</v>
+      <c r="C292" s="268" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -31283,11 +31349,11 @@
       <c r="B348" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="C348" s="253" t="s">
+      <c r="C348" s="252" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D348" s="253" t="s">
         <v>1292</v>
-      </c>
-      <c r="D348" s="254" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="29">
@@ -31635,7 +31701,7 @@
       <c r="A379" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="B379" s="249"/>
+      <c r="B379" s="248"/>
       <c r="C379" s="106"/>
       <c r="D379" s="10" t="s">
         <v>940</v>
@@ -31665,7 +31731,7 @@
       <c r="A383" s="10" t="s">
         <v>933</v>
       </c>
-      <c r="B383" s="249"/>
+      <c r="B383" s="248"/>
       <c r="C383" s="190" t="s">
         <v>933</v>
       </c>
@@ -31686,7 +31752,7 @@
     </row>
     <row r="385" spans="1:4" ht="29">
       <c r="A385" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B385" s="187"/>
       <c r="C385" s="107"/>
@@ -31695,7 +31761,7 @@
       <c r="A386" s="189" t="s">
         <v>944</v>
       </c>
-      <c r="B386" s="250" t="s">
+      <c r="B386" s="249" t="s">
         <v>945</v>
       </c>
       <c r="C386" s="189" t="s">
@@ -31706,26 +31772,26 @@
       </c>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="251" t="s">
-        <v>1288</v>
+      <c r="A387" s="250" t="s">
+        <v>1287</v>
       </c>
       <c r="B387" s="225" t="s">
         <v>427</v>
       </c>
-      <c r="C387" s="252" t="s">
-        <v>1290</v>
+      <c r="C387" s="251" t="s">
+        <v>1289</v>
       </c>
       <c r="D387" s="225" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="261">
       <c r="B388" s="187"/>
-      <c r="C388" s="250" t="s">
+      <c r="C388" s="249" t="s">
         <v>948</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="72.5">
@@ -31803,11 +31869,11 @@
       <c r="B396" s="191" t="s">
         <v>946</v>
       </c>
-      <c r="C396" s="252" t="s">
-        <v>1290</v>
+      <c r="C396" s="251" t="s">
+        <v>1289</v>
       </c>
       <c r="D396" s="225" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="362.5">
@@ -31816,15 +31882,15 @@
         <v>974</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="29">
       <c r="A398" s="188" t="s">
         <v>954</v>
       </c>
-      <c r="B398" s="252" t="s">
-        <v>1291</v>
+      <c r="B398" s="251" t="s">
+        <v>1290</v>
       </c>
       <c r="C398" s="189" t="s">
         <v>949</v>
@@ -32424,11 +32490,11 @@
       <c r="B460" s="122" t="s">
         <v>629</v>
       </c>
-      <c r="C460" s="257" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D460" s="257" t="s">
+      <c r="C460" s="256" t="s">
         <v>1299</v>
+      </c>
+      <c r="D460" s="256" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="461" spans="1:22" ht="43.5">
@@ -32440,7 +32506,7 @@
       <c r="A462" s="122" t="s">
         <v>640</v>
       </c>
-      <c r="B462" s="265" t="s">
+      <c r="B462" s="263" t="s">
         <v>732</v>
       </c>
       <c r="C462" s="122"/>
@@ -32545,7 +32611,7 @@
         <v>745</v>
       </c>
       <c r="B472" s="17"/>
-      <c r="C472" s="255" t="s">
+      <c r="C472" s="254" t="s">
         <v>731</v>
       </c>
       <c r="D472" s="33"/>
@@ -32631,7 +32697,7 @@
     <row r="480" spans="1:4" ht="348">
       <c r="A480" s="141"/>
       <c r="B480" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C480" s="224" t="s">
         <v>1214</v>
@@ -32643,10 +32709,10 @@
     <row r="481" spans="1:4" ht="203">
       <c r="A481" s="141"/>
       <c r="B481" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C481" s="270" t="s">
-        <v>1372</v>
+        <v>1369</v>
+      </c>
+      <c r="C481" s="267" t="s">
+        <v>1370</v>
       </c>
       <c r="D481" s="158"/>
     </row>
@@ -33342,7 +33408,7 @@
       </c>
       <c r="B546" s="107"/>
       <c r="C546" s="23" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="P546" s="1"/>
       <c r="U546" s="1"/>
@@ -33350,35 +33416,35 @@
     </row>
     <row r="547" spans="1:22">
       <c r="A547" s="10" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="548" spans="1:22" ht="159.5">
-      <c r="B548" s="270" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C548" s="270" t="s">
+      <c r="B548" s="267" t="s">
         <v>1354</v>
       </c>
+      <c r="C548" s="267" t="s">
+        <v>1352</v>
+      </c>
       <c r="D548" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="549" spans="1:22">
-      <c r="B549" s="270"/>
-      <c r="C549" s="269" t="s">
-        <v>1313</v>
+      <c r="B549" s="267"/>
+      <c r="C549" s="266" t="s">
+        <v>1311</v>
       </c>
       <c r="D549" s="10" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="550" spans="1:22">
       <c r="B550" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C550" s="267" t="s">
-        <v>1315</v>
+        <v>1351</v>
+      </c>
+      <c r="C550" s="265" t="s">
+        <v>1313</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>243</v>
@@ -33386,424 +33452,419 @@
     </row>
     <row r="551" spans="1:22">
       <c r="B551" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C551" s="267" t="s">
-        <v>1316</v>
+        <v>1351</v>
+      </c>
+      <c r="C551" s="265" t="s">
+        <v>1314</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="552" spans="1:22">
       <c r="B552" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C552" s="267" t="s">
-        <v>1318</v>
+        <v>1351</v>
+      </c>
+      <c r="C552" s="265" t="s">
+        <v>1316</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="553" spans="1:22">
       <c r="B553" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C553" s="267" t="s">
-        <v>1319</v>
+        <v>1351</v>
+      </c>
+      <c r="C553" s="265" t="s">
+        <v>1317</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="554" spans="1:22">
       <c r="B554" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C554" s="267" t="s">
-        <v>1340</v>
+        <v>1351</v>
+      </c>
+      <c r="C554" s="265" t="s">
+        <v>1338</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="555" spans="1:22">
       <c r="B555" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C555" s="267" t="s">
-        <v>1321</v>
+        <v>1351</v>
+      </c>
+      <c r="C555" s="265" t="s">
+        <v>1319</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="556" spans="1:22">
       <c r="B556" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C556" s="267" t="s">
-        <v>1320</v>
+        <v>1351</v>
+      </c>
+      <c r="C556" s="265" t="s">
+        <v>1318</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="557" spans="1:22">
       <c r="B557" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C557" s="267" t="s">
-        <v>1341</v>
+        <v>1351</v>
+      </c>
+      <c r="C557" s="265" t="s">
+        <v>1339</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="558" spans="1:22">
       <c r="B558" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C558" s="267" t="s">
-        <v>1342</v>
+        <v>1351</v>
+      </c>
+      <c r="C558" s="265" t="s">
+        <v>1340</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="559" spans="1:22">
       <c r="B559" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C559" s="267" t="s">
-        <v>1343</v>
+        <v>1353</v>
+      </c>
+      <c r="C559" s="265" t="s">
+        <v>1341</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="560" spans="1:22">
       <c r="B560" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C560" s="267" t="s">
-        <v>1344</v>
+        <v>1353</v>
+      </c>
+      <c r="C560" s="265" t="s">
+        <v>1342</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="B561" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C561" s="267" t="s">
-        <v>1326</v>
+        <v>1351</v>
+      </c>
+      <c r="C561" s="265" t="s">
+        <v>1324</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="B562" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C562" s="267" t="s">
-        <v>1327</v>
+        <v>1353</v>
+      </c>
+      <c r="C562" s="265" t="s">
+        <v>1325</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="B563" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C563" s="267" t="s">
-        <v>1328</v>
+        <v>1351</v>
+      </c>
+      <c r="C563" s="265" t="s">
+        <v>1326</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C564" s="267" t="s">
-        <v>1345</v>
+        <v>1351</v>
+      </c>
+      <c r="C564" s="265" t="s">
+        <v>1343</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C565" s="267" t="s">
-        <v>1346</v>
+        <v>1351</v>
+      </c>
+      <c r="C565" s="265" t="s">
+        <v>1344</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C566" s="267" t="s">
-        <v>1329</v>
+        <v>1351</v>
+      </c>
+      <c r="C566" s="265" t="s">
+        <v>1327</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="72.5">
       <c r="A567" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C567" s="267" t="s">
-        <v>1347</v>
+        <v>1351</v>
+      </c>
+      <c r="C567" s="265" t="s">
+        <v>1345</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="B568" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C568" s="267" t="s">
-        <v>1331</v>
+        <v>1351</v>
+      </c>
+      <c r="C568" s="265" t="s">
+        <v>1329</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="B569" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C569" s="267" t="s">
-        <v>1333</v>
+        <v>1351</v>
+      </c>
+      <c r="C569" s="265" t="s">
+        <v>1331</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="B570" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C570" s="267" t="s">
-        <v>1334</v>
+        <v>1351</v>
+      </c>
+      <c r="C570" s="265" t="s">
+        <v>1332</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="B571" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C571" s="267" t="s">
-        <v>1335</v>
+        <v>1351</v>
+      </c>
+      <c r="C571" s="265" t="s">
+        <v>1333</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="72.5">
       <c r="A572" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C572" s="267" t="s">
-        <v>1336</v>
+        <v>1351</v>
+      </c>
+      <c r="C572" s="265" t="s">
+        <v>1334</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="72.5">
       <c r="A573" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C573" s="267" t="s">
-        <v>1338</v>
+        <v>1351</v>
+      </c>
+      <c r="C573" s="265" t="s">
+        <v>1336</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="72.5">
       <c r="A574" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C574" s="267" t="s">
-        <v>1339</v>
+        <v>1351</v>
+      </c>
+      <c r="C574" s="265" t="s">
+        <v>1337</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="10" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="43.5">
-      <c r="C576" s="270" t="s">
-        <v>1349</v>
+      <c r="C576" s="267" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="577" spans="1:21" ht="43.5">
-      <c r="C577" s="270" t="s">
-        <v>1350</v>
+      <c r="C577" s="267" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="578" spans="1:21">
       <c r="A578" s="10" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C578" s="269" t="s">
-        <v>1313</v>
+        <v>1349</v>
+      </c>
+      <c r="C578" s="266" t="s">
+        <v>1311</v>
       </c>
       <c r="D578" s="10" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="579" spans="1:21">
-      <c r="C579" s="267" t="s">
-        <v>1347</v>
+      <c r="C579" s="265" t="s">
+        <v>1345</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="580" spans="1:21">
-      <c r="C580" s="267" t="s">
+      <c r="C580" s="265" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21">
+      <c r="C581" s="265" t="s">
         <v>1336</v>
       </c>
-      <c r="D580" s="1" t="s">
+      <c r="D581" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21">
+      <c r="C582" s="265" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="581" spans="1:21">
-      <c r="C581" s="267" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D581" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="582" spans="1:21">
-      <c r="A582" s="268"/>
-      <c r="B582" s="271"/>
-      <c r="C582" s="267" t="s">
-        <v>1339</v>
-      </c>
       <c r="D582" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="583" spans="1:21" ht="116">
-      <c r="A583" s="268"/>
-      <c r="B583" s="271"/>
-      <c r="C583" s="270" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D583" s="268"/>
+      <c r="C583" s="267" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="584" spans="1:21" ht="159.5">
       <c r="A584" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B584" s="270" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C584" s="270" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B584" s="267" t="s">
         <v>1354</v>
       </c>
-      <c r="D584" s="270" t="s">
-        <v>1377</v>
+      <c r="C584" s="267" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D584" s="267" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="585" spans="1:21" ht="188.5">
       <c r="A585" s="2"/>
-      <c r="B585" s="270" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C585" s="270" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D585" s="270" t="s">
-        <v>1373</v>
+      <c r="B585" s="267" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C585" s="267" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D585" s="267" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="586" spans="1:21" ht="58">
       <c r="B586" s="2" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C586" s="270" t="s">
-        <v>1358</v>
+        <v>1357</v>
+      </c>
+      <c r="C586" s="267" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="587" spans="1:21">
       <c r="A587" s="10" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" ht="43.5">
+      <c r="C588" s="267" t="s">
         <v>1362</v>
-      </c>
-    </row>
-    <row r="588" spans="1:21" ht="43.5">
-      <c r="C588" s="270" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="589" spans="1:21" ht="159.5">
       <c r="A589" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C589" s="270" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D589" s="270" t="s">
-        <v>1374</v>
+        <v>1364</v>
+      </c>
+      <c r="C589" s="267" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D589" s="267" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="590" spans="1:21" ht="101.5">
       <c r="B590" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C590" s="270" t="s">
-        <v>1368</v>
+        <v>1365</v>
+      </c>
+      <c r="C590" s="267" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="592" spans="1:21">
@@ -33831,7 +33892,7 @@
       </c>
       <c r="B593" s="107"/>
       <c r="C593" s="23" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="P593" s="1"/>
       <c r="U593" s="1"/>
@@ -33839,28 +33900,28 @@
     </row>
     <row r="594" spans="1:22">
       <c r="A594" s="10" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="595" spans="1:22" ht="58">
+      <c r="C595" s="267" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="596" spans="1:22" ht="232">
+      <c r="C596" s="267" t="s">
         <v>1381</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="595" spans="1:22" ht="58">
-      <c r="C595" s="270" t="s">
+    </row>
+    <row r="597" spans="1:22" ht="246.5">
+      <c r="C597" s="267" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D597" s="2" t="s">
         <v>1382</v>
-      </c>
-    </row>
-    <row r="596" spans="1:22" ht="232">
-      <c r="C596" s="270" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="597" spans="1:22" ht="246.5">
-      <c r="C597" s="270" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="605" spans="1:22">
@@ -33887,7 +33948,7 @@
         <v>704</v>
       </c>
       <c r="B606" s="107"/>
-      <c r="C606" s="266" t="s">
+      <c r="C606" s="264" t="s">
         <v>625</v>
       </c>
       <c r="D606" s="1" t="s">
@@ -33939,8 +34000,8 @@
       </c>
     </row>
     <row r="612" spans="1:22" ht="232">
-      <c r="A612" s="262" t="s">
-        <v>1306</v>
+      <c r="A612" s="260" t="s">
+        <v>1304</v>
       </c>
       <c r="C612" s="153" t="s">
         <v>781</v>
@@ -33963,8 +34024,8 @@
       </c>
     </row>
     <row r="615" spans="1:22" ht="246.5">
-      <c r="A615" s="262" t="s">
-        <v>1307</v>
+      <c r="A615" s="260" t="s">
+        <v>1305</v>
       </c>
       <c r="C615" s="153" t="s">
         <v>786</v>
@@ -34581,12 +34642,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -35576,14 +35637,14 @@
       <c r="A68" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B68" s="256" t="s">
+      <c r="B68" s="255" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C68" s="255" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D68" s="255" t="s">
         <v>1297</v>
-      </c>
-      <c r="C68" s="256" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D68" s="256" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -35806,7 +35867,7 @@
       <c r="A1" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C1" s="264"/>
+      <c r="C1" s="262"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -35828,7 +35889,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5">
-      <c r="C4" s="264" t="s">
+      <c r="C4" s="262" t="s">
         <v>1192</v>
       </c>
     </row>

--- a/3 четверть_3_Java Junior.xlsx
+++ b/3 четверть_3_Java Junior.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571F764-DD11-4C41-B3DF-10C5DAEEA407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B997F-A09F-4BF3-B1FC-0CEABB97B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="1387">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -1795,9 +1795,6 @@
     </r>
   </si>
   <si>
-    <t>Пять возможных интерфейса для лямбда-выражений и рефернс-методов</t>
-  </si>
-  <si>
     <t>Создание собственных интерфейсов для реализации анонимных классов (включая лямбда-выражения и референс-методы)</t>
   </si>
   <si>
@@ -5608,22 +5605,6 @@
     <t>Sum reduce</t>
   </si>
   <si>
-    <t>public static void main(String[] args) {
-    List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 5);
-    Optional&lt;Integer&gt; sum = numbers.stream()
-            .reduce((left, right) -&gt; left + right);
-    sum.ifPresent(System.out::println); //output 11
-}</t>
-  </si>
-  <si>
-    <t>public static void main(String[] args) {
-    List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 5);
-    Integer sum = numbers.stream()
-            .reduce(10, (left, right) -&gt; left + right);
-    System.out.println(sum); //output 21
-}</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Sum reduce - А теперь посчитаем сумму начиная с 10
 </t>
@@ -5646,27 +5627,6 @@
     <t>Перегруженный метод reduce принимает начальное значение (identity) и аккумулятор.
 В первом случае результат метода reduce вернул Optional&lt;Integer&gt; т.к. мы не указывали начальное значение.
 Во втором случае мы указали начальное значение, и метод reduce уже возвращает обычный Integer.</t>
-  </si>
-  <si>
-    <t>public static void main(String[] args) {
-    List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3);
-    // 1*10 + 2*10 + 3*10
-    Integer sum = numbers.stream()
-            .reduce(10, (identity, val) -&gt; identity * val, (left, right) -&gt; left + right);
-    System.out.println(sum); //output 60
-}</t>
-  </si>
-  <si>
-    <t>reduce(identity,
-                 accumulator,
-                 combiner)</t>
-  </si>
-  <si>
-    <t>reduce(identity,
-                 combiner)</t>
-  </si>
-  <si>
-    <t>reduce(combiner)</t>
   </si>
   <si>
     <r>
@@ -24733,17 +24693,403 @@
       <t>("…");</t>
     </r>
   </si>
+  <si>
+    <t>Пять возможных интерфейсов для лямбда-выражений и референс-методов</t>
+  </si>
+  <si>
+    <r>
+      <t>public static void main(String[] args) {
+    List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 5);
+    Optional&lt;Integer&gt; sum = numbers.stream()
+            .reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(left, right) -&gt; left + right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+    sum.ifPresent(System.out::println); //output 11
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public static void main(String[] args) {
+    List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 5);
+    Integer sum = numbers.stream()
+            .reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(left, right) -&gt; left + right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+    System.out.println(sum); //output 21
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>combiner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>combiner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accumulator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>combiner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public static void main(String[] args) {
+    List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3);
+    // 1*10 + 2*10 + 3*10
+    Integer sum = numbers.stream()
+            .reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (identity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> val) -&gt; identity * val</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(left, right) -&gt; left + right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+    System.out.println(sum); //output 60
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Функциональные интерфейсы === стрелочные функции в javascript === лямбда выражения в python</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="66">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -25269,6 +25615,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -25587,9 +25951,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -25600,29 +25964,44 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -25631,31 +26010,16 @@
     <xf numFmtId="49" fontId="47" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25664,7 +26028,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25676,7 +26040,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25688,7 +26052,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25697,25 +26061,25 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25724,28 +26088,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25766,34 +26130,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25808,94 +26172,94 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -25904,10 +26268,49 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -25916,133 +26319,130 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26051,49 +26451,13 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -26102,91 +26466,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -26195,7 +26559,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -26207,85 +26571,85 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -26297,16 +26661,40 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26318,52 +26706,34 @@
     <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26372,19 +26742,19 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -28012,8 +28382,8 @@
   </sheetPr>
   <dimension ref="A1:V672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28071,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P2" s="1"/>
       <c r="U2" s="1"/>
@@ -28126,6 +28496,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="174">
+      <c r="A9" s="271" t="s">
+        <v>1386</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -28188,7 +28561,7 @@
         <v>84</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P15" s="1"/>
       <c r="U15" s="1"/>
@@ -28336,13 +28709,13 @@
     </row>
     <row r="28" spans="1:22" ht="87">
       <c r="A28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P28" s="1"/>
       <c r="U28" s="1"/>
@@ -28350,13 +28723,13 @@
     </row>
     <row r="29" spans="1:22" ht="116">
       <c r="A29" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C29" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P29" s="1"/>
       <c r="U29" s="1"/>
@@ -28389,7 +28762,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>104</v>
+        <v>1379</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>56</v>
@@ -28530,7 +28903,7 @@
         <v>57</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>103</v>
@@ -28552,39 +28925,39 @@
     </row>
     <row r="47" spans="1:22" ht="87">
       <c r="A47" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:22" ht="116">
       <c r="A48" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:22" ht="29">
       <c r="A49" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="29">
       <c r="A50" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="27"/>
     </row>
@@ -28618,28 +28991,28 @@
     </row>
     <row r="54" spans="1:22" ht="29">
       <c r="A54" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="43.5">
       <c r="A55" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="58">
@@ -28647,20 +29020,20 @@
         <v>88</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="275.5">
       <c r="A57" s="35"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="31"/>
     </row>
@@ -28729,11 +29102,11 @@
     </row>
     <row r="66" spans="1:22" ht="29">
       <c r="A66" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>24</v>
@@ -28741,26 +29114,26 @@
     </row>
     <row r="67" spans="1:22" ht="29">
       <c r="A67" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:22" ht="29">
       <c r="A68" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="29"/>
       <c r="C68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:22" ht="116">
       <c r="C69" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -28800,16 +29173,16 @@
     </row>
     <row r="73" spans="1:22" ht="29">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P73" s="1"/>
       <c r="U73" s="1"/>
@@ -28817,16 +29190,16 @@
     </row>
     <row r="74" spans="1:22" ht="44" thickBot="1">
       <c r="A74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="52"/>
       <c r="C75" s="116"/>
@@ -28834,138 +29207,138 @@
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D76" s="56"/>
     </row>
     <row r="77" spans="1:22" ht="29">
       <c r="A77" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D77" s="56"/>
     </row>
     <row r="78" spans="1:22" ht="29">
       <c r="A78" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:22" ht="43.5">
       <c r="A79" s="258" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C79" s="184" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D79" s="56"/>
     </row>
     <row r="80" spans="1:22" ht="43.5">
       <c r="A80" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="56"/>
     </row>
     <row r="81" spans="1:22" ht="116">
       <c r="A81" s="57" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C81" s="109" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D81" s="56"/>
     </row>
     <row r="82" spans="1:22" ht="101.5">
       <c r="A82" s="57" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B82" s="109" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C82" s="109" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D82" s="56"/>
     </row>
     <row r="83" spans="1:22" ht="29.5" thickBot="1">
       <c r="A83" s="111" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B83" s="112"/>
       <c r="C83" s="259" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="D83" s="114"/>
     </row>
     <row r="84" spans="1:22" ht="58">
       <c r="A84" s="257" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C84" s="109" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D84" s="56"/>
     </row>
     <row r="85" spans="1:22" ht="145">
       <c r="A85" s="57" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D85" s="110" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="145">
       <c r="A86" s="57" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="58.5" thickBot="1">
       <c r="A87" s="115" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B87" s="113" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C87" s="113" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D87" s="114" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -28999,16 +29372,16 @@
     </row>
     <row r="90" spans="1:22" ht="29">
       <c r="A90" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C90" s="117" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P90" s="1"/>
       <c r="U90" s="1"/>
@@ -29016,65 +29389,65 @@
     </row>
     <row r="91" spans="1:22" ht="29">
       <c r="A91" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="29">
       <c r="A92" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D92" s="33"/>
     </row>
     <row r="93" spans="1:22" ht="58">
       <c r="A93" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" s="29"/>
       <c r="C93" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="45"/>
     </row>
     <row r="94" spans="1:22" ht="43.5">
       <c r="A94" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="87">
+    </row>
+    <row r="95" spans="1:22" ht="101.5">
       <c r="A95" s="32"/>
       <c r="B95" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" s="61" t="s">
         <v>145</v>
-      </c>
-      <c r="D95" s="61" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="43.5">
       <c r="A96" s="66" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B96" s="91" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -29082,499 +29455,499 @@
     <row r="97" spans="1:4" ht="116">
       <c r="B97" s="43"/>
       <c r="C97" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" ht="72.5">
       <c r="A99" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99" s="184" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="B100" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="159.5">
       <c r="B101" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" ht="87">
       <c r="A102" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B102" s="184" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C102" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" ht="72.5">
       <c r="A103" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" ht="159.5">
       <c r="B105" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" ht="43.5">
       <c r="A106" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="C106" s="43" t="s">
-        <v>152</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" ht="43.5">
       <c r="A107" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" ht="43.5">
       <c r="A108" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="43.5">
       <c r="A109" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" ht="43.5">
       <c r="A110" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="D110" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="101.5">
       <c r="A111" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C111" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D111" s="109" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="43.5">
       <c r="B112" s="109" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C112" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D112" s="43"/>
     </row>
     <row r="113" spans="1:4" ht="131" thickBot="1">
       <c r="B113" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="C113" s="43" t="s">
-        <v>199</v>
       </c>
       <c r="D113" s="43"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="87">
       <c r="A115" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D115" s="56"/>
     </row>
     <row r="116" spans="1:4" ht="43.5">
       <c r="A116" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" ht="130.5">
       <c r="A117" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C117" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="43.5">
       <c r="B118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="D118" s="43" t="s">
         <v>196</v>
-      </c>
-      <c r="D118" s="43" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="55"/>
       <c r="B119" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D119" s="63"/>
     </row>
     <row r="120" spans="1:4" ht="130.5">
       <c r="A120" s="55"/>
       <c r="B120" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D120" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="55"/>
       <c r="B121" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" s="63"/>
     </row>
     <row r="122" spans="1:4" ht="145">
       <c r="A122" s="55"/>
       <c r="B122" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D122" s="63"/>
     </row>
     <row r="123" spans="1:4" ht="29">
       <c r="A123" s="55"/>
       <c r="B123" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D123" s="63"/>
     </row>
     <row r="124" spans="1:4" ht="145">
       <c r="A124" s="55"/>
       <c r="B124" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D124" s="63"/>
     </row>
     <row r="125" spans="1:4" ht="43.5">
       <c r="A125" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D125" s="56"/>
     </row>
     <row r="126" spans="1:4" ht="87">
       <c r="A126" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="43" t="s">
         <v>179</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>180</v>
       </c>
       <c r="D126" s="56"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="57"/>
       <c r="B127" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D127" s="56"/>
     </row>
     <row r="128" spans="1:4" ht="87">
       <c r="A128" s="57"/>
       <c r="B128" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="56"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D129" s="56"/>
     </row>
     <row r="130" spans="1:4" ht="29">
       <c r="A130" s="57"/>
       <c r="B130" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D130" s="56"/>
     </row>
     <row r="131" spans="1:4" ht="174">
       <c r="A131" s="57"/>
       <c r="B131" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D131" s="56"/>
     </row>
     <row r="132" spans="1:4" ht="72.5">
       <c r="A132" s="57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D132" s="56"/>
     </row>
     <row r="133" spans="1:4" ht="43.5">
       <c r="A133" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C133" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D133" s="56"/>
     </row>
     <row r="134" spans="1:4" ht="43.5">
       <c r="A134" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="43" t="s">
         <v>186</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C134" s="43" t="s">
-        <v>187</v>
       </c>
       <c r="D134" s="56"/>
     </row>
     <row r="135" spans="1:4" ht="43.5">
       <c r="A135" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" s="43" t="s">
         <v>188</v>
-      </c>
-      <c r="C135" s="43" t="s">
-        <v>189</v>
       </c>
       <c r="D135" s="56"/>
     </row>
     <row r="136" spans="1:4" ht="29">
       <c r="A136" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C136" s="43"/>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C137" s="43"/>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4" ht="116">
       <c r="A138" s="2" t="s">
-        <v>411</v>
+        <v>1383</v>
       </c>
       <c r="B138" s="89" t="s">
-        <v>412</v>
-      </c>
-      <c r="C138" s="89" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="C138" s="270" t="s">
+        <v>1380</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" ht="116">
       <c r="A139" s="2" t="s">
-        <v>410</v>
+        <v>1382</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C139" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="C139" s="270" t="s">
+        <v>1381</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="130.5">
       <c r="A140" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C140" s="89" t="s">
-        <v>408</v>
+        <v>1384</v>
+      </c>
+      <c r="C140" s="270" t="s">
+        <v>1385</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="10" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C141" s="43"/>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" ht="116">
       <c r="B142" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C142" s="89" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" ht="116">
       <c r="C143" s="89" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" ht="116">
       <c r="B144" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C144" s="89" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -29611,13 +29984,13 @@
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C149" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C149" s="67" t="s">
+      <c r="D149" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="P149" s="1"/>
       <c r="U149" s="1"/>
@@ -29625,35 +29998,35 @@
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:22" ht="58">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:22" ht="29">
       <c r="C152" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:22" ht="130.5">
       <c r="B153" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C153" s="261" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -29662,72 +30035,72 @@
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:22" ht="29">
       <c r="B156" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="C157" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:22" ht="43.5">
       <c r="B159" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" s="89" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="C160" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4">
       <c r="C163" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="83" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
@@ -29735,7 +30108,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="186" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="61"/>
@@ -29743,48 +30116,48 @@
     <row r="166" spans="1:4" ht="58">
       <c r="A166" s="38"/>
       <c r="B166" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="D166" s="61"/>
     </row>
     <row r="167" spans="1:4" ht="87">
       <c r="A167" s="32"/>
       <c r="B167" s="185" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D167" s="61"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="186" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="D168" s="61"/>
     </row>
     <row r="169" spans="1:4" ht="58">
       <c r="A169" s="32"/>
       <c r="C169" s="2" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="D169" s="61"/>
     </row>
     <row r="170" spans="1:4" ht="174">
       <c r="A170" s="32"/>
       <c r="C170" s="2" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="186" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="61"/>
@@ -29792,22 +30165,22 @@
     <row r="172" spans="1:4" ht="29">
       <c r="A172" s="32"/>
       <c r="C172" s="2" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="D172" s="61"/>
     </row>
     <row r="173" spans="1:4" ht="101.5">
       <c r="A173" s="32"/>
       <c r="C173" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="D173" s="61" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="186" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="61"/>
@@ -29815,7 +30188,7 @@
     <row r="175" spans="1:4" ht="43.5">
       <c r="A175" s="32"/>
       <c r="C175" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="D175" s="61"/>
     </row>
@@ -29823,39 +30196,39 @@
       <c r="A176" s="35"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D176" s="45"/>
     </row>
     <row r="177" spans="1:22" ht="29">
       <c r="A177" s="22" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="10" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="10" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:22" ht="87">
       <c r="C180" s="2" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="10" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -29911,7 +30284,7 @@
         <v>30</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="304.5">
@@ -29919,7 +30292,7 @@
         <v>31</v>
       </c>
       <c r="C189" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="116">
@@ -29961,10 +30334,10 @@
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C195" s="67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P195" s="1"/>
       <c r="U195" s="1"/>
@@ -29972,7 +30345,7 @@
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C196" s="2"/>
       <c r="P196" s="1"/>
@@ -29981,10 +30354,10 @@
     </row>
     <row r="197" spans="1:22" ht="43.5">
       <c r="B197" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P197" s="1"/>
       <c r="U197" s="1"/>
@@ -29992,7 +30365,7 @@
     </row>
     <row r="198" spans="1:22" ht="72.5">
       <c r="C198" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P198" s="1"/>
       <c r="U198" s="1"/>
@@ -30000,7 +30373,7 @@
     </row>
     <row r="199" spans="1:22" ht="29">
       <c r="C199" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P199" s="1"/>
       <c r="U199" s="1"/>
@@ -30014,7 +30387,7 @@
     </row>
     <row r="201" spans="1:22">
       <c r="A201" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B201" s="52"/>
       <c r="C201" s="69"/>
@@ -30025,7 +30398,7 @@
         <v>81</v>
       </c>
       <c r="C202" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D202" s="71"/>
     </row>
@@ -30035,13 +30408,13 @@
       </c>
       <c r="B203" s="59"/>
       <c r="C203" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D203" s="72"/>
     </row>
     <row r="204" spans="1:22" ht="29">
       <c r="A204" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B204" s="52"/>
       <c r="C204" s="69"/>
@@ -30052,10 +30425,10 @@
         <v>81</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C205" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205" s="71"/>
     </row>
@@ -30064,26 +30437,26 @@
         <v>82</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D206" s="71"/>
     </row>
     <row r="207" spans="1:22" ht="73" thickBot="1">
       <c r="A207" s="58"/>
       <c r="B207" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C207" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D207" s="72"/>
     </row>
     <row r="208" spans="1:22" ht="29">
       <c r="A208" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B208" s="52"/>
       <c r="C208" s="69"/>
@@ -30092,65 +30465,65 @@
     <row r="209" spans="1:4" ht="72.5">
       <c r="A209" s="55"/>
       <c r="B209" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D209" s="71"/>
     </row>
     <row r="210" spans="1:4" ht="58.5" thickBot="1">
       <c r="A210" s="58"/>
       <c r="B210" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="C210" s="60" t="s">
         <v>265</v>
-      </c>
-      <c r="C210" s="60" t="s">
-        <v>266</v>
       </c>
       <c r="D210" s="72"/>
     </row>
     <row r="211" spans="1:4" ht="29">
       <c r="A211" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B211" s="52"/>
       <c r="C211" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D211" s="70"/>
     </row>
     <row r="212" spans="1:4" ht="73" thickBot="1">
       <c r="A212" s="58"/>
       <c r="B212" s="59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C212" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D212" s="72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B213" s="52"/>
       <c r="C213" s="69"/>
       <c r="D213" s="70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="116">
       <c r="A214" s="55"/>
       <c r="C214" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D214" s="71"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B215" s="74"/>
       <c r="C215" s="74"/>
@@ -30158,49 +30531,49 @@
     </row>
     <row r="216" spans="1:4" ht="72.5">
       <c r="A216" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B216" s="74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C216" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D216" s="71"/>
     </row>
     <row r="217" spans="1:4" ht="44" thickBot="1">
       <c r="A217" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B217" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" s="77" t="s">
         <v>280</v>
-      </c>
-      <c r="C217" s="77" t="s">
-        <v>281</v>
       </c>
       <c r="D217" s="72"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B218" s="78"/>
       <c r="C218" s="78"/>
       <c r="D218" s="70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="29">
       <c r="A219" s="75"/>
       <c r="B219" s="74"/>
       <c r="C219" s="74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D219" s="71"/>
     </row>
     <row r="220" spans="1:4" ht="29">
       <c r="A220" s="80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C220" s="74"/>
       <c r="D220" s="71"/>
@@ -30208,13 +30581,13 @@
     <row r="221" spans="1:4" ht="72.5">
       <c r="A221" s="75"/>
       <c r="C221" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D221" s="71"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C222" s="74"/>
       <c r="D222" s="71"/>
@@ -30222,41 +30595,41 @@
     <row r="223" spans="1:4" ht="87">
       <c r="A223" s="55"/>
       <c r="C223" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D223" s="71"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D224" s="71"/>
     </row>
     <row r="225" spans="1:22" ht="101.5">
       <c r="A225" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C225" s="81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="1:22" ht="43.5">
       <c r="A226" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C226" s="89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="227" spans="1:22" ht="43.5">
       <c r="A227" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C227" s="89" t="s">
         <v>394</v>
-      </c>
-      <c r="C227" s="89" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -30286,13 +30659,13 @@
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C231" s="82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P231" s="1"/>
       <c r="U231" s="1"/>
@@ -30300,197 +30673,197 @@
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="233" spans="1:22" ht="43.5">
       <c r="A233" s="2"/>
       <c r="C233" s="81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="1:22" ht="87">
       <c r="A234" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C234" s="81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235" spans="1:22" ht="72.5">
       <c r="A235" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C235" s="81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="236" spans="1:22" ht="130.5">
       <c r="A236" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B236" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C236" s="81" t="s">
+        <v>344</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C236" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="237" spans="1:22" ht="116">
       <c r="B237" s="81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C237" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="238" spans="1:22" ht="116">
       <c r="A238" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B238" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="C238" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B238" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="C238" s="81" t="s">
-        <v>362</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:22" ht="43.5">
       <c r="A239" s="86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B239" s="25"/>
       <c r="C239" s="84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D239" s="27"/>
     </row>
     <row r="240" spans="1:22" ht="43.5">
       <c r="A240" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C240" s="81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D240" s="33"/>
     </row>
     <row r="241" spans="1:4" ht="58">
       <c r="A241" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C241" s="81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D241" s="33"/>
     </row>
     <row r="242" spans="1:4" ht="58">
       <c r="A242" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B242" s="29"/>
       <c r="C242" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D242" s="31"/>
     </row>
     <row r="243" spans="1:4" ht="43.5">
       <c r="A243" s="83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B243" s="25"/>
       <c r="C243" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D243" s="27"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C244" s="81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D244" s="33"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C245" s="81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D245" s="33"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C246" s="81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D246" s="33"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C247" s="81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D247" s="33"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C248" s="81" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D248" s="33"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C249" s="81" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D249" s="33"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C250" s="81" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D250" s="33"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B251" s="29"/>
       <c r="C251" s="85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D251" s="31"/>
     </row>
     <row r="252" spans="1:4" ht="43.5">
       <c r="A252" s="86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B252" s="25"/>
       <c r="C252" s="87"/>
@@ -30498,105 +30871,105 @@
     </row>
     <row r="253" spans="1:4" ht="174">
       <c r="A253" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C253" s="81" t="s">
         <v>328</v>
-      </c>
-      <c r="C253" s="81" t="s">
-        <v>329</v>
       </c>
       <c r="D253" s="33"/>
     </row>
     <row r="254" spans="1:4" ht="246.5">
       <c r="A254" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C254" s="81" t="s">
         <v>330</v>
-      </c>
-      <c r="C254" s="81" t="s">
-        <v>331</v>
       </c>
       <c r="D254" s="33"/>
     </row>
     <row r="255" spans="1:4" ht="72.5">
       <c r="A255" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C255" s="81" t="s">
         <v>332</v>
-      </c>
-      <c r="C255" s="81" t="s">
-        <v>333</v>
       </c>
       <c r="D255" s="33"/>
     </row>
     <row r="256" spans="1:4" ht="43.5">
       <c r="A256" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C256" s="81" t="s">
         <v>334</v>
-      </c>
-      <c r="C256" s="81" t="s">
-        <v>335</v>
       </c>
       <c r="D256" s="33"/>
     </row>
     <row r="257" spans="1:22" ht="43.5">
       <c r="A257" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B257" s="29"/>
       <c r="C257" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D257" s="31"/>
     </row>
     <row r="258" spans="1:22" ht="72.5">
       <c r="A258" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="C258" s="81" t="s">
         <v>340</v>
-      </c>
-      <c r="C258" s="81" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="29">
       <c r="A259" s="86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="188.5">
       <c r="A260" s="81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C260" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="87">
       <c r="A261" s="81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C261" s="81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="188.5">
       <c r="A262" s="81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B262" s="91" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C262" s="91" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="203">
       <c r="A263" s="81"/>
       <c r="C263" s="81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="159.5">
       <c r="A264" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C264" s="81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -30620,16 +30993,16 @@
     </row>
     <row r="267" spans="1:22" ht="29">
       <c r="A267" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B267" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C267" s="222" t="s">
+        <v>370</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B267" s="89" t="s">
-        <v>392</v>
-      </c>
-      <c r="C267" s="222" t="s">
-        <v>371</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="P267" s="1"/>
       <c r="U267" s="1"/>
@@ -30637,214 +31010,214 @@
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="58">
       <c r="C269" s="89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="270" spans="1:22">
       <c r="A270" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D270" s="88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="43.5">
       <c r="A271" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B271" s="89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C271" s="89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="29">
       <c r="C272" s="89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="C273" s="89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="C274" s="89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="C275" s="89" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="C276" s="89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="C277" s="89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="C278" s="89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="C279" s="89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="C280" s="89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="43.5">
       <c r="A281" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C281" s="89" t="s">
         <v>390</v>
-      </c>
-      <c r="C281" s="89" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="319">
       <c r="A282" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="C282" s="223" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="174">
       <c r="A283" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="C283" s="223" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="391.5">
       <c r="A284" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="C284" s="223" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="304.5">
       <c r="A285" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="C285" s="223" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="261">
       <c r="A286" s="1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C286" s="223" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="159.5">
       <c r="C287" s="89"/>
       <c r="D287" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="130.5">
       <c r="C288" s="89"/>
       <c r="D288" s="2" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="188.5">
       <c r="C289" s="89"/>
       <c r="D289" s="2" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="145">
       <c r="A290" s="1" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="C290" s="223" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="58">
       <c r="A291" s="1" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="C291" s="269" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="72.5">
       <c r="A292" s="1" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="C292" s="268" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="293" spans="1:22">
       <c r="C293" s="89"/>
       <c r="D293" s="1" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -30883,13 +31256,13 @@
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C300" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="C300" s="90" t="s">
+      <c r="D300" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="P300" s="1"/>
       <c r="U300" s="1"/>
@@ -30897,7 +31270,7 @@
     </row>
     <row r="301" spans="1:22" ht="43.5">
       <c r="C301" s="89" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" spans="1:22">
@@ -30921,13 +31294,13 @@
     </row>
     <row r="304" spans="1:22">
       <c r="A304" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C304" s="90" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P304" s="1"/>
       <c r="U304" s="1"/>
@@ -30935,15 +31308,15 @@
     </row>
     <row r="305" spans="1:22" ht="43.5">
       <c r="B305" s="89" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C305" s="89" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="188.5">
       <c r="C306" s="89" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="308" spans="1:22">
@@ -30967,10 +31340,10 @@
     </row>
     <row r="309" spans="1:22">
       <c r="A309" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C309" s="90" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P309" s="1"/>
       <c r="U309" s="1"/>
@@ -30978,198 +31351,198 @@
     </row>
     <row r="310" spans="1:22" ht="29">
       <c r="C310" s="89" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="311" spans="1:22">
       <c r="A311" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="29">
       <c r="A312" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C312" s="91" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="29">
       <c r="A313" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C313" s="91" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="314" spans="1:22">
       <c r="A314" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C314" s="91" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="315" spans="1:22">
       <c r="A315" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C315" s="91" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="43.5">
       <c r="A316" s="93" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B316" s="25" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C316" s="87"/>
       <c r="D316" s="27" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="174">
       <c r="A317" s="32"/>
       <c r="C317" s="92" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D317" s="33"/>
     </row>
     <row r="318" spans="1:22" ht="58">
       <c r="A318" s="99" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D318" s="33" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="319" spans="1:22" ht="188.5">
       <c r="A319" s="35"/>
       <c r="B319" s="29"/>
       <c r="C319" s="97" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D319" s="31"/>
     </row>
     <row r="320" spans="1:22" ht="43.5">
       <c r="A320" s="93" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C320" s="87"/>
       <c r="D320" s="27" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="321" spans="1:22" ht="203">
       <c r="A321" s="32"/>
       <c r="C321" s="92" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D321" s="33"/>
     </row>
     <row r="322" spans="1:22" ht="58">
       <c r="A322" s="99" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D322" s="33" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="203">
       <c r="A323" s="32"/>
       <c r="C323" s="92" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D323" s="33"/>
     </row>
     <row r="324" spans="1:22" ht="29">
       <c r="A324" s="100" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D324" s="33"/>
     </row>
     <row r="325" spans="1:22" ht="145">
       <c r="A325" s="32"/>
       <c r="B325" s="92" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C325" s="91" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D325" s="33"/>
     </row>
     <row r="326" spans="1:22" ht="43.5">
       <c r="A326" s="32"/>
       <c r="C326" s="91" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D326" s="33"/>
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="99" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D327" s="33"/>
     </row>
     <row r="328" spans="1:22" ht="87">
       <c r="A328" s="32"/>
       <c r="B328" s="91" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C328" s="91" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D328" s="33"/>
     </row>
     <row r="329" spans="1:22" ht="87">
       <c r="A329" s="35"/>
       <c r="B329" s="101" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C329" s="101" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D329" s="31"/>
     </row>
     <row r="330" spans="1:22" ht="174">
       <c r="A330" s="106" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B330" s="92" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C330" s="189" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="409.5">
       <c r="A331" s="92" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B331" s="189" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C331" s="92" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="203">
       <c r="C332" s="91" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:22">
@@ -31193,10 +31566,10 @@
     </row>
     <row r="335" spans="1:22">
       <c r="A335" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C335" s="98" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P335" s="1"/>
       <c r="U335" s="1"/>
@@ -31204,10 +31577,10 @@
     </row>
     <row r="336" spans="1:22" ht="101.5">
       <c r="C336" s="160" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D336" s="160" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="P336" s="1"/>
       <c r="U336" s="1"/>
@@ -31215,7 +31588,7 @@
     </row>
     <row r="337" spans="1:22">
       <c r="A337" s="93" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B337" s="25"/>
       <c r="C337" s="25"/>
@@ -31226,10 +31599,10 @@
     </row>
     <row r="338" spans="1:22" ht="43.5">
       <c r="A338" s="99" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C338" s="92"/>
       <c r="D338" s="33"/>
@@ -31240,7 +31613,7 @@
     <row r="339" spans="1:22">
       <c r="A339" s="32"/>
       <c r="B339" s="22" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C339" s="92"/>
       <c r="D339" s="33"/>
@@ -31250,13 +31623,13 @@
     </row>
     <row r="340" spans="1:22" ht="188.5">
       <c r="A340" s="38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C340" s="92" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D340" s="33"/>
       <c r="P340" s="1"/>
@@ -31265,42 +31638,42 @@
     </row>
     <row r="341" spans="1:22">
       <c r="A341" s="161" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D341" s="33" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="174">
       <c r="A342" s="162" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C342" s="160" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D342" s="33"/>
     </row>
     <row r="343" spans="1:22" ht="174">
       <c r="A343" s="95" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C343" s="160" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D343" s="33"/>
     </row>
     <row r="344" spans="1:22">
       <c r="A344" s="93" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B344" s="25"/>
       <c r="C344" s="94"/>
@@ -31308,83 +31681,83 @@
     </row>
     <row r="345" spans="1:22" ht="29">
       <c r="A345" s="163" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C345" s="92"/>
       <c r="D345" s="33"/>
     </row>
     <row r="346" spans="1:22" ht="188.5">
       <c r="A346" s="130" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B346" s="92" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C346" s="92" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D346" s="33"/>
     </row>
     <row r="347" spans="1:22" ht="72.5">
       <c r="A347" s="128" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B347" s="25" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C347" s="175" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D347" s="27" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="348" spans="1:22" ht="72.5">
       <c r="A348" s="28" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B348" s="29" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C348" s="252" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D348" s="253" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="29">
       <c r="A349" s="128" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B349" s="25"/>
       <c r="C349" s="178" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D349" s="177"/>
     </row>
     <row r="350" spans="1:22" ht="43.5">
       <c r="A350" s="28"/>
       <c r="B350" s="145" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C350" s="168" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="D350" s="176" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="351" spans="1:22">
       <c r="A351" s="128" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B351" s="25"/>
       <c r="C351" s="178" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D351" s="177"/>
       <c r="F351" s="2"/>
@@ -31395,13 +31768,13 @@
     <row r="352" spans="1:22" ht="29">
       <c r="A352" s="38"/>
       <c r="B352" s="17" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C352" s="181" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D352" s="182" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="17"/>
@@ -31410,139 +31783,139 @@
     </row>
     <row r="353" spans="1:22">
       <c r="A353" s="128" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B353" s="25"/>
       <c r="C353" s="178" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D353" s="177"/>
     </row>
     <row r="354" spans="1:22" ht="29">
       <c r="A354" s="28"/>
       <c r="B354" s="145" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C354" s="168" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="D354" s="176" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="43.5">
       <c r="A355" s="99" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C355" s="92"/>
       <c r="D355" s="92" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="43.5">
       <c r="A356" s="32" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C356" s="92" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D356" s="33"/>
     </row>
     <row r="357" spans="1:22" ht="145">
       <c r="A357" s="95" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C357" s="92" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D357" s="33" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="358" spans="1:22">
       <c r="A358" s="95"/>
       <c r="C358" s="10" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D358" s="96" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="159.5">
       <c r="A359" s="95" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C359" s="92" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D359" s="61" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="87">
       <c r="A360" s="35"/>
       <c r="B360" s="29"/>
       <c r="C360" s="97" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D360" s="31"/>
     </row>
     <row r="361" spans="1:22" ht="188.5">
       <c r="A361" s="99" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B361" s="92" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C361" s="92" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D361" s="33" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="246.5">
       <c r="A362" s="38" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C362" s="92" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D362" s="33"/>
     </row>
     <row r="363" spans="1:22" ht="72.5">
       <c r="A363" s="32" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C363" s="92" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D363" s="33"/>
     </row>
     <row r="364" spans="1:22" ht="116">
       <c r="A364" s="35" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B364" s="29" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C364" s="97" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D364" s="31"/>
     </row>
@@ -31567,16 +31940,16 @@
     </row>
     <row r="367" spans="1:22" ht="58">
       <c r="A367" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B367" s="107" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C367" s="98" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P367" s="1"/>
       <c r="U367" s="1"/>
@@ -31584,82 +31957,82 @@
     </row>
     <row r="368" spans="1:22" ht="58">
       <c r="B368" s="107" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C368" s="92" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="369" spans="1:22">
       <c r="A369" s="10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="370" spans="1:22" ht="43.5">
       <c r="B370" s="17" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C370" s="92" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D370" s="187" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="371" spans="1:22" ht="58">
       <c r="A371" s="164" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B371" s="102" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C371" s="103"/>
       <c r="D371" s="104" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="372" spans="1:22" ht="58">
       <c r="A372" s="164" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B372" s="102" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C372" s="103"/>
       <c r="D372" s="104"/>
     </row>
     <row r="373" spans="1:22" ht="43.5">
       <c r="A373" s="105" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B373" s="102" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C373" s="103"/>
       <c r="D373" s="104" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="374" spans="1:22">
       <c r="A374" s="10" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C374" s="187" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="375" spans="1:22" ht="409.5">
       <c r="A375" s="219" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B375" s="187" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C375" s="107" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="376" spans="1:22">
@@ -31687,11 +32060,11 @@
     </row>
     <row r="378" spans="1:22">
       <c r="A378" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B378" s="107"/>
       <c r="C378" s="188" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="P378" s="1"/>
       <c r="U378" s="1"/>
@@ -31699,238 +32072,238 @@
     </row>
     <row r="379" spans="1:22">
       <c r="A379" s="10" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B379" s="248"/>
       <c r="C379" s="106"/>
       <c r="D379" s="10" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="380" spans="1:22" ht="101.5">
       <c r="B380" s="187"/>
       <c r="C380" s="189" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="381" spans="1:22" ht="304.5">
       <c r="B381" s="187"/>
       <c r="C381" s="189" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="382" spans="1:22" ht="174">
       <c r="B382" s="189" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C382" s="189" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="383" spans="1:22">
       <c r="A383" s="10" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B383" s="248"/>
       <c r="C383" s="190" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="D383" s="10" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="384" spans="1:22" ht="203">
       <c r="A384" s="2" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B384" s="192" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="C384" s="189" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="29">
       <c r="A385" s="22" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="B385" s="187"/>
       <c r="C385" s="107"/>
     </row>
     <row r="386" spans="1:4" ht="116">
       <c r="A386" s="189" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B386" s="249" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C386" s="189" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="250" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="B387" s="225" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C387" s="251" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D387" s="225" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="261">
       <c r="B388" s="187"/>
       <c r="C388" s="249" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="72.5">
       <c r="A389" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B389" s="189" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C389" s="189" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="29">
       <c r="B390" s="187"/>
       <c r="C390" s="189" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="190" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="B391" s="187"/>
       <c r="C391" s="190" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="130.5">
       <c r="A392" s="2"/>
       <c r="B392" s="189" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C392" s="189" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="87">
       <c r="A393" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B393" s="187"/>
       <c r="C393" s="189" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="72.5">
       <c r="A394" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B394" s="187"/>
       <c r="C394" s="189" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="72.5">
       <c r="A395" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B395" s="187"/>
       <c r="C395" s="189" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="190" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B396" s="191" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C396" s="251" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D396" s="225" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="362.5">
       <c r="B397" s="187"/>
       <c r="C397" s="189" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="29">
       <c r="A398" s="188" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B398" s="251" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="C398" s="189" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="72.5">
       <c r="A399" s="189"/>
       <c r="B399" s="187"/>
       <c r="C399" s="189" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="72.5">
       <c r="A400" s="189"/>
       <c r="B400" s="187"/>
       <c r="C400" s="189" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="401" spans="1:22" ht="116">
       <c r="A401" s="189" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B401" s="189" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="C401" s="189" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="402" spans="1:22" ht="72.5">
       <c r="A402" s="1" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B402" s="187"/>
       <c r="C402" s="189" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="405" spans="1:22">
@@ -31954,11 +32327,11 @@
     </row>
     <row r="406" spans="1:22">
       <c r="A406" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B406" s="107"/>
       <c r="C406" s="121" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="P406" s="1"/>
       <c r="U406" s="1"/>
@@ -31966,74 +32339,74 @@
     </row>
     <row r="407" spans="1:22" ht="203">
       <c r="B407" s="109" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C407" s="122" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D407" s="109" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="408" spans="1:22">
       <c r="A408" s="10" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="29">
       <c r="C409" s="119" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="410" spans="1:22">
       <c r="A410" s="10" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="411" spans="1:22" ht="116">
       <c r="B411" s="119" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C411" s="119" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="116.5" thickBot="1">
       <c r="A412" s="17" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B412" s="126" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C412" s="193" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D412" s="20" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="413" spans="1:22" ht="58">
       <c r="A413" s="199" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B413" s="200" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C413" s="200" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D413" s="201" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="29">
       <c r="A414" s="209"/>
       <c r="B414" s="210"/>
       <c r="C414" s="203" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D414" s="211"/>
     </row>
@@ -32041,274 +32414,274 @@
       <c r="A415" s="209"/>
       <c r="B415" s="210"/>
       <c r="C415" s="203" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D415" s="216" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="87">
       <c r="A416" s="209"/>
       <c r="B416" s="210"/>
       <c r="C416" s="203" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="D416" s="216" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="101.5">
       <c r="A417" s="209"/>
       <c r="B417" s="210"/>
       <c r="C417" s="203" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D417" s="216" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="116">
       <c r="A418" s="209" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B418" s="210"/>
       <c r="C418" s="203" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D418" s="216" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="203">
       <c r="A419" s="209" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B419" s="210"/>
       <c r="C419" s="203" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="D419" s="215" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="130.5">
       <c r="A420" s="209" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B420" s="210"/>
       <c r="C420" s="203" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D420" s="215" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="101.5">
       <c r="A421" s="209" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B421" s="210"/>
       <c r="C421" s="203" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D421" s="215" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="44" thickBot="1">
       <c r="A422" s="212"/>
       <c r="B422" s="213"/>
       <c r="C422" s="207" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="D422" s="214"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="10" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="145">
       <c r="A424" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B424" s="126" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C424" s="119" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D424" s="119" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="76" customHeight="1">
       <c r="A425" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B425" s="126" t="s">
+        <v>669</v>
+      </c>
+      <c r="C425" s="126" t="s">
         <v>667</v>
-      </c>
-      <c r="B425" s="126" t="s">
-        <v>676</v>
-      </c>
-      <c r="C425" s="126" t="s">
-        <v>674</v>
       </c>
       <c r="D425" s="119"/>
     </row>
     <row r="426" spans="1:4" ht="116">
       <c r="A426" s="17" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B426" s="119" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C426" s="122" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="145">
       <c r="A427" s="17" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B427" s="119" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C427" s="137" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="29">
       <c r="A428" s="120" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C428" s="120" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="159.5">
       <c r="B429" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C429" s="137" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="145">
       <c r="B430" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C430" s="119" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="72.5">
       <c r="B431" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C431" s="119" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="10" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="433" spans="1:22" ht="188.5">
       <c r="A433" s="127" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C433" s="119" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="434" spans="1:22" ht="29">
       <c r="A434" s="128" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B434" s="25"/>
       <c r="C434" s="87"/>
       <c r="D434" s="129" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="435" spans="1:22" ht="116">
       <c r="A435" s="130"/>
       <c r="B435" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C435" s="119" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D435" s="33"/>
     </row>
     <row r="436" spans="1:22" ht="43.5">
       <c r="A436" s="131" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C436" s="127" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D436" s="33"/>
     </row>
     <row r="437" spans="1:22" ht="58">
       <c r="A437" s="131" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C437" s="127" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D437" s="33"/>
     </row>
     <row r="438" spans="1:22" ht="29">
       <c r="A438" s="132" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B438" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C438" s="133" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D438" s="31"/>
     </row>
     <row r="439" spans="1:22" ht="188.5">
       <c r="A439" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C439" s="119" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="440" spans="1:22" ht="29">
       <c r="A440" s="42" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C440" s="119"/>
     </row>
     <row r="441" spans="1:22" ht="203">
       <c r="A441" s="127" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B441" s="127" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C441" s="127" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="442" spans="1:22">
@@ -32337,11 +32710,11 @@
     </row>
     <row r="444" spans="1:22">
       <c r="A444" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B444" s="107"/>
       <c r="C444" s="125" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="P444" s="1"/>
       <c r="U444" s="1"/>
@@ -32349,67 +32722,67 @@
     </row>
     <row r="445" spans="1:22" ht="29">
       <c r="A445" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C445" s="122" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="446" spans="1:22">
       <c r="A446" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C446" s="122" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:22">
       <c r="A447" s="10" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C447" s="134" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:22" ht="72.5">
       <c r="A448" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C448" s="127" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:22" ht="43.5">
       <c r="C449" s="127" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:22" ht="58">
       <c r="C450" s="127" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:22" ht="43.5">
       <c r="A451" s="134" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B451" s="4"/>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:22" ht="72.5">
       <c r="B452" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C452" s="127" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G452" s="1"/>
     </row>
@@ -32434,11 +32807,11 @@
     </row>
     <row r="455" spans="1:22" ht="29">
       <c r="A455" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B455" s="107"/>
       <c r="C455" s="135" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="P455" s="1"/>
       <c r="U455" s="1"/>
@@ -32446,429 +32819,429 @@
     </row>
     <row r="456" spans="1:22" ht="116">
       <c r="A456" s="153" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B456" s="122"/>
       <c r="C456" s="119" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D456" s="153" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="457" spans="1:22" ht="145">
       <c r="A457" s="137" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C457" s="119" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="458" spans="1:22" ht="43.5">
       <c r="A458" s="119" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B458" s="122" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C458" s="122" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="459" spans="1:22" ht="43.5">
       <c r="A459" s="136" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="460" spans="1:22" ht="130.5">
       <c r="B460" s="122" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C460" s="256" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="D460" s="256" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="461" spans="1:22" ht="43.5">
       <c r="A461" s="136" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="462" spans="1:22" ht="130.5">
       <c r="A462" s="122" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B462" s="263" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C462" s="122"/>
     </row>
     <row r="463" spans="1:22" ht="29">
       <c r="A463" s="193" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C463" s="122"/>
     </row>
     <row r="464" spans="1:22" ht="130.5">
       <c r="A464" s="122" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C464" s="193" t="s">
         <v>630</v>
-      </c>
-      <c r="C464" s="193" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="130.5">
       <c r="A465" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C465" s="137" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="72.5">
       <c r="A466" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C466" s="137" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="87">
       <c r="A467" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C467" s="137" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="130.5">
       <c r="A468" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C468" s="137" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="140.5" customHeight="1">
       <c r="A469" s="138" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B469" s="139" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C469" s="140" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D469" s="27"/>
     </row>
     <row r="470" spans="1:4" ht="43.5">
       <c r="A470" s="38" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B470" s="17"/>
       <c r="C470" s="137" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D470" s="33"/>
     </row>
-    <row r="471" spans="1:4" ht="58">
+    <row r="471" spans="1:4" ht="72.5">
       <c r="A471" s="141" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B471" s="137" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C471" s="137" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D471" s="33"/>
     </row>
     <row r="472" spans="1:4" ht="87">
       <c r="A472" s="141" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B472" s="17"/>
       <c r="C472" s="254" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="D472" s="33"/>
     </row>
     <row r="473" spans="1:4" ht="58">
       <c r="A473" s="142" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B473" s="143" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C473" s="144" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D473" s="31"/>
     </row>
     <row r="474" spans="1:4" ht="72.5">
       <c r="A474" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C474" s="137" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D474" s="122" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="43.5">
       <c r="A475" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C475" s="137" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="43.5">
       <c r="A476" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C476" s="137" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="43.5">
       <c r="A477" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B477" s="137" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C477" s="137" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="87">
       <c r="A478" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B478" s="137"/>
       <c r="C478" s="193" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="29">
       <c r="A479" s="146" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B479" s="25"/>
       <c r="C479" s="150" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D479" s="147"/>
     </row>
     <row r="480" spans="1:4" ht="348">
       <c r="A480" s="141"/>
       <c r="B480" s="2" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="C480" s="224" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="D480" s="158" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="203">
       <c r="A481" s="141"/>
       <c r="B481" s="2" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="C481" s="267" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="D481" s="158"/>
     </row>
     <row r="482" spans="1:4" ht="72.5">
       <c r="A482" s="155" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B482" s="102"/>
       <c r="C482" s="156" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D482" s="152"/>
     </row>
     <row r="483" spans="1:4" ht="101.5">
       <c r="A483" s="149" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C483" s="193" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="D483" s="148"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="136" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C484" s="137" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D484" s="137"/>
     </row>
     <row r="485" spans="1:4" ht="87">
       <c r="A485" s="193" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="B485" s="193" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="C485" s="193" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D485" s="137"/>
     </row>
     <row r="486" spans="1:4" ht="87">
       <c r="A486" s="193" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B486" s="193" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="C486" s="137" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D486" s="203" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="101.5">
       <c r="A487" s="217" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C487" s="193" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D487" s="137" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="116">
       <c r="A488" s="137"/>
       <c r="C488" s="193" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D488" s="193" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="116">
       <c r="A489" s="137" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B489" s="137" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C489" s="193" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D489" s="193" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="116">
       <c r="A490" s="137"/>
       <c r="B490" s="193" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C490" s="193" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="D490" s="203" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="72.5">
       <c r="A491" s="137"/>
       <c r="B491" s="193" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="C491" s="193" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="D491" s="193" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" ht="87">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="101.5">
       <c r="A492" s="137"/>
       <c r="B492" s="137"/>
       <c r="C492" s="193" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="D492" s="193" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="130.5">
       <c r="A493" s="137"/>
       <c r="B493" s="137"/>
       <c r="C493" s="193" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D493" s="193" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="101.5">
       <c r="A494" s="137"/>
       <c r="B494" s="137"/>
       <c r="C494" s="193" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="D494" s="203" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="58">
       <c r="A495" s="137"/>
       <c r="B495" s="137"/>
       <c r="C495" s="193" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D495" s="193"/>
     </row>
@@ -32880,7 +33253,7 @@
     </row>
     <row r="497" spans="1:4" ht="29">
       <c r="A497" s="136" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C497" s="137"/>
       <c r="D497" s="137"/>
@@ -32888,182 +33261,182 @@
     <row r="498" spans="1:4">
       <c r="A498" s="2"/>
       <c r="B498" s="194" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C498" s="195" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="D498" s="195" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="72.5">
       <c r="A499" s="2"/>
       <c r="B499" s="229" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C499" s="246" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D499" s="197" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="101.5">
       <c r="A500" s="2"/>
       <c r="B500" s="196" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C500" s="196" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D500" s="196" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="247" thickBot="1">
       <c r="A501" s="137"/>
       <c r="B501" s="137" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C501" s="193" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="73" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B502" s="52"/>
       <c r="C502" s="231" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="D502" s="232" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="188.5">
       <c r="A503" s="233" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="C503" s="227" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="D503" s="218" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="217.5">
       <c r="A504" s="202" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B504" s="230"/>
       <c r="C504" s="227" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="D504" s="218" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="145">
       <c r="A505" s="202" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B505" s="230"/>
       <c r="C505" s="203" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D505" s="218" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="217.5">
       <c r="A506" s="202" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B506" s="230"/>
       <c r="C506" s="203" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="D506" s="218" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="217.5">
       <c r="A507" s="202" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B507" s="230"/>
       <c r="C507" s="203" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D507" s="218" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="29">
       <c r="A508" s="202"/>
       <c r="B508" s="230"/>
       <c r="C508" s="203" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="D508" s="204"/>
     </row>
     <row r="509" spans="1:4" ht="73" thickBot="1">
       <c r="A509" s="205" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B509" s="206"/>
       <c r="C509" s="207" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="D509" s="208"/>
     </row>
     <row r="510" spans="1:4" ht="246.5">
       <c r="A510" s="22" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="B510" s="4"/>
       <c r="C510" s="137" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D510" s="118" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="261">
       <c r="A511" s="236" t="s">
+        <v>752</v>
+      </c>
+      <c r="B511" s="140" t="s">
+        <v>638</v>
+      </c>
+      <c r="C511" s="154" t="s">
         <v>759</v>
       </c>
-      <c r="B511" s="140" t="s">
-        <v>645</v>
-      </c>
-      <c r="C511" s="154" t="s">
-        <v>766</v>
-      </c>
       <c r="D511" s="139" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="203">
       <c r="A512" s="38"/>
       <c r="B512" s="17" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C512" s="137" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D512" s="33"/>
     </row>
     <row r="513" spans="1:21" ht="43.5">
       <c r="A513" s="236" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B513" s="154" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C513" s="87"/>
       <c r="D513" s="27"/>
@@ -33071,150 +33444,150 @@
     <row r="514" spans="1:21">
       <c r="A514" s="2"/>
       <c r="B514" s="123" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C514" s="123" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="515" spans="1:21" ht="29">
       <c r="A515" s="153" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D515" s="124" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="516" spans="1:21">
       <c r="A516" s="2"/>
       <c r="B516" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C516" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D516" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="D516" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="517" spans="1:21">
       <c r="A517" s="2"/>
       <c r="B517" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C517" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D517" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D517" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="518" spans="1:21">
       <c r="A518" s="2"/>
       <c r="B518" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D518" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="C518" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="D518" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="519" spans="1:21">
       <c r="A519" s="2"/>
       <c r="B519" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="520" spans="1:21" ht="58">
       <c r="A520" s="238" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B520" s="17"/>
       <c r="C520" s="193" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="521" spans="1:21" ht="116">
       <c r="A521" s="239" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="B521" s="193" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="C521" s="237" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="522" spans="1:21" ht="43.5">
       <c r="A522" s="137"/>
       <c r="B522" s="17" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C522" s="193" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="523" spans="1:21" ht="87">
       <c r="A523" s="239" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="B523" s="17" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C523" s="237" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="D523" s="240" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="524" spans="1:21" ht="130.5">
       <c r="A524" s="239" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="B524" s="17"/>
       <c r="C524" s="237" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="D524" s="237" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="525" spans="1:21" ht="319">
       <c r="A525" s="234" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B525" s="29" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="C525" s="198" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="D525" s="31"/>
     </row>
     <row r="526" spans="1:21" ht="145">
       <c r="A526" s="235" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B526" s="102" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C526" s="151" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D526" s="104"/>
     </row>
@@ -33239,14 +33612,14 @@
     </row>
     <row r="529" spans="1:22">
       <c r="A529" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B529" s="107"/>
       <c r="C529" s="203" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="P529" s="1"/>
       <c r="U529" s="1"/>
@@ -33254,7 +33627,7 @@
     </row>
     <row r="530" spans="1:22" ht="29">
       <c r="A530" s="137" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B530" s="107"/>
       <c r="C530" s="1"/>
@@ -33264,56 +33637,56 @@
     </row>
     <row r="531" spans="1:22" ht="101.5">
       <c r="A531" s="137" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="532" spans="1:22" ht="101.5">
       <c r="A532" s="137" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="533" spans="1:22" ht="101.5">
       <c r="A533" s="193" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="534" spans="1:22" ht="101.5">
       <c r="A534" s="193" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="535" spans="1:22" ht="101.5">
       <c r="A535" s="193" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="536" spans="1:22" ht="72.5">
       <c r="A536" s="193" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C536" s="2"/>
     </row>
     <row r="537" spans="1:22" ht="130.5">
       <c r="A537" s="203" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="538" spans="1:22" ht="13.5" customHeight="1">
@@ -33343,14 +33716,14 @@
     </row>
     <row r="541" spans="1:22">
       <c r="A541" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B541" s="107"/>
       <c r="C541" s="203" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="P541" s="1"/>
       <c r="U541" s="1"/>
@@ -33358,29 +33731,29 @@
     </row>
     <row r="542" spans="1:22" ht="101.5">
       <c r="A542" s="193" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="543" spans="1:22" ht="101.5">
       <c r="A543" s="193" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="544" spans="1:22" ht="101.5">
       <c r="A544" s="193" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="545" spans="1:22">
@@ -33404,11 +33777,11 @@
     </row>
     <row r="546" spans="1:22">
       <c r="A546" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B546" s="107"/>
       <c r="C546" s="23" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="P546" s="1"/>
       <c r="U546" s="1"/>
@@ -33416,455 +33789,455 @@
     </row>
     <row r="547" spans="1:22">
       <c r="A547" s="10" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="548" spans="1:22" ht="159.5">
       <c r="B548" s="267" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="C548" s="267" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="549" spans="1:22">
       <c r="B549" s="267"/>
       <c r="C549" s="266" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="D549" s="10" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="550" spans="1:22">
       <c r="B550" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C550" s="265" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="551" spans="1:22">
       <c r="B551" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C551" s="265" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="552" spans="1:22">
       <c r="B552" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C552" s="265" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="553" spans="1:22">
       <c r="B553" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C553" s="265" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="554" spans="1:22">
       <c r="B554" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C554" s="265" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="555" spans="1:22">
       <c r="B555" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C555" s="265" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="556" spans="1:22">
       <c r="B556" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C556" s="265" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="557" spans="1:22">
       <c r="B557" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C557" s="265" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="558" spans="1:22">
       <c r="B558" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C558" s="265" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="559" spans="1:22">
       <c r="B559" s="2" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="C559" s="265" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="560" spans="1:22">
       <c r="B560" s="2" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="C560" s="265" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="B561" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C561" s="265" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="B562" s="2" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="C562" s="265" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="B563" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C563" s="265" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C564" s="265" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C565" s="265" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C566" s="265" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="72.5">
       <c r="A567" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C567" s="265" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="B568" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C568" s="265" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="B569" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C569" s="265" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="B570" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C570" s="265" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="B571" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C571" s="265" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="72.5">
       <c r="A572" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C572" s="265" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="72.5">
       <c r="A573" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C573" s="265" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="72.5">
       <c r="A574" s="2" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C574" s="265" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="10" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="43.5">
       <c r="C576" s="267" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="577" spans="1:21" ht="43.5">
       <c r="C577" s="267" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="578" spans="1:21">
       <c r="A578" s="10" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="C578" s="266" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="D578" s="10" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="579" spans="1:21">
       <c r="C579" s="265" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="580" spans="1:21">
       <c r="C580" s="265" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="581" spans="1:21">
       <c r="C581" s="265" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="582" spans="1:21">
       <c r="C582" s="265" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="583" spans="1:21" ht="116">
       <c r="C583" s="267" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="584" spans="1:21" ht="159.5">
       <c r="A584" s="2" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="B584" s="267" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="C584" s="267" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="D584" s="267" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="585" spans="1:21" ht="188.5">
       <c r="A585" s="2"/>
       <c r="B585" s="267" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C585" s="267" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="D585" s="267" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="586" spans="1:21" ht="58">
       <c r="B586" s="2" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="C586" s="267" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="587" spans="1:21">
       <c r="A587" s="10" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="588" spans="1:21" ht="43.5">
       <c r="C588" s="267" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="589" spans="1:21" ht="159.5">
       <c r="A589" s="2" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="C589" s="267" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="D589" s="267" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="590" spans="1:21" ht="101.5">
       <c r="B590" s="2" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="C590" s="267" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="592" spans="1:21">
@@ -33888,11 +34261,11 @@
     </row>
     <row r="593" spans="1:22">
       <c r="A593" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B593" s="107"/>
       <c r="C593" s="23" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="P593" s="1"/>
       <c r="U593" s="1"/>
@@ -33900,28 +34273,28 @@
     </row>
     <row r="594" spans="1:22">
       <c r="A594" s="10" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="595" spans="1:22" ht="58">
       <c r="C595" s="267" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="596" spans="1:22" ht="232">
       <c r="C596" s="267" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="597" spans="1:22" ht="246.5">
       <c r="C597" s="267" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="605" spans="1:22">
@@ -33945,14 +34318,14 @@
     </row>
     <row r="606" spans="1:22">
       <c r="A606" s="1" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B606" s="107"/>
       <c r="C606" s="264" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="P606" s="1"/>
       <c r="U606" s="1"/>
@@ -33960,29 +34333,29 @@
     </row>
     <row r="607" spans="1:22">
       <c r="A607" s="10" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="608" spans="1:22" ht="72.5">
       <c r="B608" s="42" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C608" s="153" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="609" spans="1:22" ht="29">
       <c r="B609" s="42" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C609" s="153" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D609" s="4"/>
     </row>
     <row r="610" spans="1:22">
       <c r="A610" s="10" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B610" s="22"/>
       <c r="C610" s="159"/>
@@ -33990,61 +34363,61 @@
     </row>
     <row r="611" spans="1:22" ht="30.5" customHeight="1">
       <c r="A611" s="159" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="612" spans="1:22" ht="232">
       <c r="A612" s="260" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="C612" s="153" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="613" spans="1:22" ht="217.5">
       <c r="C613" s="153" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="614" spans="1:22" ht="29">
       <c r="A614" s="159" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="615" spans="1:22" ht="246.5">
       <c r="A615" s="260" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="C615" s="153" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="616" spans="1:22" ht="246.5">
       <c r="C616" s="153" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="617" spans="1:22">
       <c r="A617" s="10" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B617" s="22"/>
       <c r="C617" s="159"/>
@@ -34052,10 +34425,10 @@
     </row>
     <row r="618" spans="1:22">
       <c r="A618" s="118" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="621" spans="1:22">
@@ -34079,11 +34452,11 @@
     </row>
     <row r="622" spans="1:22">
       <c r="A622" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B622" s="107"/>
       <c r="C622" s="157" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="P622" s="1"/>
       <c r="U622" s="1"/>
@@ -34091,501 +34464,501 @@
     </row>
     <row r="623" spans="1:22" ht="29">
       <c r="A623" s="10" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="624" spans="1:22">
       <c r="C624" s="160" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="10" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="44" thickBot="1">
       <c r="A626" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C626" s="165" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="73" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B627" s="52"/>
       <c r="C627" s="169" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D627" s="70" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="232">
       <c r="A628" s="55"/>
       <c r="B628" s="2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C628" s="165" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D628" s="71"/>
     </row>
     <row r="629" spans="1:4" ht="72.5">
       <c r="A629" s="170" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B629" s="25" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C629" s="166" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D629" s="171"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="55" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C630" s="165" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D630" s="71"/>
     </row>
     <row r="631" spans="1:4" ht="43.5">
       <c r="A631" s="172" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C631" s="165" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D631" s="71"/>
     </row>
     <row r="632" spans="1:4" ht="29">
       <c r="A632" s="172" t="s">
+        <v>807</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C632" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="B632" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C632" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="D632" s="71"/>
     </row>
     <row r="633" spans="1:4" ht="43.5">
       <c r="A633" s="172" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C633" s="165" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D633" s="71"/>
     </row>
     <row r="634" spans="1:4" ht="43.5">
       <c r="A634" s="172" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C634" s="165" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D634" s="71"/>
     </row>
     <row r="635" spans="1:4" ht="29">
       <c r="A635" s="172" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C635" s="165" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D635" s="71"/>
     </row>
     <row r="636" spans="1:4" ht="29">
       <c r="A636" s="172" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C636" s="165" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D636" s="71"/>
     </row>
     <row r="637" spans="1:4" ht="29">
       <c r="A637" s="172" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C637" s="165" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D637" s="71"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="172" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C638" s="165" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D638" s="71"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="172" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C639" s="165" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D639" s="71"/>
     </row>
     <row r="640" spans="1:4" ht="29">
       <c r="A640" s="172" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C640" s="165" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D640" s="71"/>
     </row>
     <row r="641" spans="1:4" ht="29">
       <c r="A641" s="172" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C641" s="165" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D641" s="71" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="29">
       <c r="A642" s="172" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C642" s="165" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D642" s="71" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="29">
       <c r="A643" s="173" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B643" s="29" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C643" s="168" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="D643" s="174"/>
     </row>
     <row r="644" spans="1:4" ht="261">
       <c r="A644" s="172"/>
       <c r="B644" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C644" s="165" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D644" s="71"/>
     </row>
     <row r="645" spans="1:4" ht="29">
       <c r="A645" s="128" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B645" s="25"/>
       <c r="C645" s="178" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D645" s="177"/>
     </row>
     <row r="646" spans="1:4" ht="43.5">
       <c r="A646" s="38"/>
       <c r="B646" s="17" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C646" s="181" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="D646" s="179" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="128" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B647" s="25"/>
       <c r="C647" s="178" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D647" s="177"/>
     </row>
     <row r="648" spans="1:4" ht="29">
       <c r="A648" s="38"/>
       <c r="B648" s="17" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C648" s="181" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D648" s="182" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="128" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B649" s="25"/>
       <c r="C649" s="178" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D649" s="177"/>
     </row>
     <row r="650" spans="1:4" ht="29">
       <c r="A650" s="38"/>
       <c r="B650" s="17" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C650" s="165" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="D650" s="179" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="180" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C651" s="165"/>
       <c r="D651" s="33"/>
     </row>
     <row r="652" spans="1:4" ht="145">
       <c r="A652" s="167" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B652" s="168" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C652" s="168" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D652" s="31"/>
     </row>
     <row r="653" spans="1:4" ht="58">
       <c r="A653" s="172" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="C653" s="165" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D653" s="71"/>
     </row>
     <row r="654" spans="1:4" ht="58">
       <c r="A654" s="172" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B654" s="165" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C654" s="165" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D654" s="71"/>
     </row>
     <row r="655" spans="1:4" ht="29">
       <c r="A655" s="172" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C655" s="165" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D655" s="71"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="170" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B656" s="25" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C656" s="87"/>
       <c r="D656" s="171"/>
     </row>
     <row r="657" spans="1:4" ht="29">
       <c r="A657" s="172" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C657" s="165" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D657" s="71"/>
     </row>
     <row r="658" spans="1:4" ht="29">
       <c r="A658" s="172" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C658" s="165" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D658" s="71"/>
     </row>
     <row r="659" spans="1:4" ht="58">
       <c r="A659" s="172" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C659" s="165" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D659" s="71"/>
     </row>
     <row r="660" spans="1:4" ht="29">
       <c r="A660" s="172" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C660" s="165" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D660" s="71"/>
     </row>
     <row r="661" spans="1:4" ht="43.5">
       <c r="A661" s="172" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C661" s="165" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D661" s="71"/>
     </row>
     <row r="662" spans="1:4" ht="58">
       <c r="A662" s="172" t="s">
+        <v>831</v>
+      </c>
+      <c r="B662" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B662" s="2" t="s">
-        <v>845</v>
-      </c>
       <c r="C662" s="165" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D662" s="71"/>
     </row>
     <row r="663" spans="1:4" ht="29">
       <c r="A663" s="172" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C663" s="165" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D663" s="71"/>
     </row>
     <row r="664" spans="1:4" ht="43.5">
       <c r="A664" s="172" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C664" s="165" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D664" s="71"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="83" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B665" s="25"/>
       <c r="C665" s="87"/>
       <c r="D665" s="27" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="666" spans="1:4" ht="377">
       <c r="A666" s="35"/>
       <c r="B666" s="29" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C666" s="168" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D666" s="31"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="83" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B667" s="25"/>
       <c r="C667" s="87"/>
       <c r="D667" s="27" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="32"/>
       <c r="B668" s="2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="C668" s="165"/>
       <c r="D668" s="33"/>
@@ -34593,21 +34966,21 @@
     <row r="669" spans="1:4" ht="72.5">
       <c r="A669" s="32"/>
       <c r="C669" s="181" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="D669" s="33"/>
     </row>
     <row r="670" spans="1:4" ht="409.5">
       <c r="A670" s="32"/>
       <c r="C670" s="181" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D670" s="33"/>
     </row>
     <row r="671" spans="1:4" ht="409.5">
       <c r="A671" s="32"/>
       <c r="C671" s="181" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D671" s="33"/>
     </row>
@@ -34615,12 +34988,12 @@
       <c r="A672" s="35"/>
       <c r="B672" s="29"/>
       <c r="C672" s="183" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D672" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="53" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D270" r:id="rId1" xr:uid="{86D65E8A-CF7A-4E7D-9853-37328E3CAC93}"/>
   </hyperlinks>
@@ -34642,12 +35015,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -34721,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="D3" s="226" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -34732,7 +35105,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="10" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D4" s="226"/>
       <c r="P4" s="1"/>
@@ -34741,10 +35114,10 @@
     </row>
     <row r="5" spans="1:22" ht="174">
       <c r="A5" s="1" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="C5" s="224" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="D5" s="226"/>
       <c r="P5" s="1"/>
@@ -34753,10 +35126,10 @@
     </row>
     <row r="6" spans="1:22" ht="409.5">
       <c r="A6" s="1" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="C6" s="224" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D6" s="226"/>
       <c r="P6" s="1"/>
@@ -34765,7 +35138,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="10" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="C7" s="224"/>
       <c r="D7" s="226"/>
@@ -34775,10 +35148,10 @@
     </row>
     <row r="8" spans="1:22" ht="43.5">
       <c r="A8" s="1" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="C8" s="224" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D8" s="226"/>
       <c r="P8" s="1"/>
@@ -34787,7 +35160,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D9" s="226"/>
       <c r="P9" s="1"/>
@@ -34796,10 +35169,10 @@
     </row>
     <row r="10" spans="1:22" ht="101.5">
       <c r="B10" s="224" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="C10" s="224" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D10" s="226"/>
       <c r="P10" s="1"/>
@@ -34808,10 +35181,10 @@
     </row>
     <row r="11" spans="1:22" ht="29">
       <c r="A11" s="10" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C11" s="224" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D11" s="226"/>
       <c r="P11" s="1"/>
@@ -34820,10 +35193,10 @@
     </row>
     <row r="12" spans="1:22" ht="43.5">
       <c r="A12" s="10" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="P12" s="1"/>
       <c r="U12" s="1"/>
@@ -34832,7 +35205,7 @@
     <row r="13" spans="1:22" ht="87">
       <c r="A13" s="2"/>
       <c r="C13" s="224" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="P13" s="1"/>
       <c r="U13" s="1"/>
@@ -34840,148 +35213,148 @@
     </row>
     <row r="14" spans="1:22" ht="116">
       <c r="A14" s="225" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="C14" s="224" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="D14" s="224" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="29">
       <c r="B15" s="2" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C15" s="224" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="188.5">
       <c r="B16" s="2" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="C16" s="224" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="101.5">
       <c r="C17" s="224" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="362.5">
       <c r="A18" s="230" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C18" s="241" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5">
       <c r="A19" s="22" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C19" s="224"/>
     </row>
     <row r="20" spans="1:4" ht="348">
       <c r="A20" s="1" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="C20" s="224" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29">
       <c r="A21" s="64" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="C21" s="224"/>
     </row>
     <row r="22" spans="1:4" ht="29">
       <c r="C22" s="241" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29">
       <c r="C23" s="241" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="242" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="29">
       <c r="A25" s="224" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="C25" s="224" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29">
       <c r="A26" s="1" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="C26" s="224" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="C27" s="224" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="319">
       <c r="B28" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="409.5">
       <c r="C29" s="224" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="29">
       <c r="A30" s="1" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="224" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="43.5">
       <c r="A31" s="1" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C31" s="224" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -35053,16 +35426,16 @@
     </row>
     <row r="2" spans="1:22" ht="29">
       <c r="A2" s="1" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="243" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="D2" s="226" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="P2" s="1"/>
       <c r="U2" s="1"/>
@@ -35070,7 +35443,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="10" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D3" s="226"/>
       <c r="P3" s="1"/>
@@ -35079,10 +35452,10 @@
     </row>
     <row r="4" spans="1:22" ht="174">
       <c r="A4" s="1" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="C4" s="224" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="226"/>
       <c r="P4" s="1"/>
@@ -35091,7 +35464,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="10" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="C5" s="224"/>
       <c r="D5" s="226"/>
@@ -35101,10 +35474,10 @@
     </row>
     <row r="6" spans="1:22" ht="43.5">
       <c r="A6" s="1" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="C6" s="224" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D6" s="226"/>
       <c r="P6" s="1"/>
@@ -35113,7 +35486,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D7" s="226"/>
       <c r="P7" s="1"/>
@@ -35122,10 +35495,10 @@
     </row>
     <row r="8" spans="1:22" ht="101.5">
       <c r="B8" s="224" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="C8" s="224" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D8" s="226"/>
       <c r="P8" s="1"/>
@@ -35134,7 +35507,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="10" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="P9" s="1"/>
       <c r="U9" s="1"/>
@@ -35143,7 +35516,7 @@
     <row r="10" spans="1:22" ht="87">
       <c r="A10" s="2"/>
       <c r="C10" s="241" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="P10" s="1"/>
       <c r="U10" s="1"/>
@@ -35151,13 +35524,13 @@
     </row>
     <row r="11" spans="1:22" ht="72.5">
       <c r="B11" s="2" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="C11" s="224" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="D11" s="224" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="P11" s="1"/>
       <c r="U11" s="1"/>
@@ -35165,96 +35538,96 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="10" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="C12" s="224"/>
     </row>
     <row r="13" spans="1:22" ht="159.5">
       <c r="C13" s="241" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="188.5">
       <c r="C14" s="241" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="29">
       <c r="A15" s="22" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C15" s="241"/>
     </row>
     <row r="16" spans="1:22" ht="58">
       <c r="A16" s="2"/>
       <c r="C16" s="241" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="2" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="C17" s="241" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="2" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="C18" s="241" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="29">
       <c r="A19" s="2" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="C19" s="241" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="43.5">
       <c r="A20" s="22" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="C20" s="241"/>
       <c r="D20" s="225" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="43.5">
       <c r="A21" s="2"/>
       <c r="C21" s="241" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="D21" s="225" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="319">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C22" s="241" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="D22" s="230" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="101.5">
       <c r="A23" s="2"/>
       <c r="C23" s="241" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="D23" s="230" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -35282,13 +35655,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C26" s="244" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D26" s="226" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="P26" s="1"/>
       <c r="U26" s="1"/>
@@ -35296,203 +35669,203 @@
     </row>
     <row r="27" spans="1:22" ht="43.5">
       <c r="A27" s="22" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="C27" s="224"/>
       <c r="D27" s="224"/>
     </row>
     <row r="28" spans="1:22" ht="246.5">
       <c r="A28" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C28" s="241" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D28" s="224"/>
     </row>
     <row r="29" spans="1:22" ht="232">
       <c r="A29" s="64" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C29" s="241" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="203">
       <c r="A30" s="1" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="C30" s="241" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="D30" s="224"/>
     </row>
     <row r="31" spans="1:22">
       <c r="C31" s="245" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="D31" s="224"/>
     </row>
     <row r="32" spans="1:22" ht="145">
       <c r="A32" s="225" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C32" s="224" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="D32" s="224" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="101.5">
       <c r="B33" s="2" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C33" s="237" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="D33" s="224" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="87">
       <c r="C34" s="241" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="D34" s="224"/>
     </row>
     <row r="35" spans="1:4" ht="130.5">
       <c r="B35" s="2" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C35" s="224" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D35" s="224"/>
     </row>
     <row r="36" spans="1:4" ht="159.5">
       <c r="B36" s="2" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C36" s="241" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="D36" s="224"/>
     </row>
     <row r="37" spans="1:4" ht="145">
       <c r="A37" s="225" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C37" s="224" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="D37" s="224"/>
     </row>
     <row r="38" spans="1:4" ht="101.5">
       <c r="B38" s="2" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="C38" s="224" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="116">
       <c r="B39" s="2" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C39" s="224" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="58">
       <c r="B40" s="2" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="C40" s="224" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="101.5">
       <c r="B41" s="2" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="C41" s="224" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="159.5">
       <c r="B42" s="2" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C42" s="224" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="232">
       <c r="A43" s="225" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="C43" s="224" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="145">
       <c r="B44" s="2" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C44" s="241" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="101.5">
       <c r="B45" s="2" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="C45" s="224" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="116">
       <c r="B46" s="2" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="C46" s="224" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="174">
       <c r="B47" s="2" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C47" s="224" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="145">
       <c r="A48" s="225" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C48" s="224" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="145">
       <c r="B49" s="2" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C49" s="237" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="304.5">
       <c r="C50" s="224" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -35522,16 +35895,16 @@
     </row>
     <row r="54" spans="1:22" ht="29">
       <c r="A54" s="1" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C54" s="243" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="D54" s="226" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="P54" s="1"/>
       <c r="U54" s="1"/>
@@ -35539,20 +35912,20 @@
     </row>
     <row r="55" spans="1:22" ht="43.5">
       <c r="A55" s="64" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="C55" s="241"/>
       <c r="D55" s="224"/>
     </row>
     <row r="56" spans="1:22" ht="362.5">
       <c r="B56" s="2" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="C56" s="241" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="D56" s="224"/>
     </row>
@@ -35592,16 +35965,16 @@
     </row>
     <row r="63" spans="1:22" ht="29">
       <c r="A63" s="1" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="C63" s="243" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="D63" s="226" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="P63" s="1"/>
       <c r="U63" s="1"/>
@@ -35609,7 +35982,7 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="10" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -35618,201 +35991,201 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="22" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C66" s="247"/>
     </row>
     <row r="67" spans="1:6" ht="304.5">
       <c r="A67" s="2" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="B67" s="247" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="C67" s="247" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="2" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="B68" s="255" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="C68" s="255" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="D68" s="255" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="225" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="409.5">
       <c r="B70" s="2" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="C70" s="224" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="116">
       <c r="B71" s="2" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="C71" s="224" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="290">
       <c r="B72" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C72" s="224" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="348">
       <c r="C73" s="224" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="225" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="409.5">
       <c r="B75" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="C75" s="224" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="225" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="174">
       <c r="C77" s="224" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="333.5">
       <c r="B78" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C78" s="237" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="203">
       <c r="B79" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="C79" s="224" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="232">
       <c r="A80" s="227" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="C80" s="224" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="232">
       <c r="B81" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="C81" s="224" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="232">
       <c r="A82" s="225" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C82" s="224" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="232">
       <c r="C83" s="224" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="203">
       <c r="C84" s="224" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="188.5">
       <c r="C85" s="224" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="232">
       <c r="C86" s="224" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="188.5">
       <c r="C87" s="224" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="188.5">
       <c r="C88" s="224" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="29">
       <c r="A89" s="228" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="29">
       <c r="A90" s="224" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="C90" s="224" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="29">
       <c r="A91" s="1" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="C91" s="224" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="29">
       <c r="A95" s="1" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C95" s="224" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="43.5">
       <c r="A96" s="1" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C96" s="224" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -35865,32 +36238,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="262"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="C2" s="224" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="377">
       <c r="B3" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5">
       <c r="C4" s="262" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -35939,14 +36312,14 @@
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E2" s="7"/>
       <c r="G2" s="2"/>
@@ -35959,11 +36332,11 @@
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="107" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="2"/>
@@ -35977,11 +36350,11 @@
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="107" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E4" s="7"/>
       <c r="G4" s="2"/>
@@ -35995,11 +36368,11 @@
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="107" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E5" s="7"/>
       <c r="G5" s="2"/>
@@ -36013,11 +36386,11 @@
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="107" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="2"/>
@@ -36031,11 +36404,11 @@
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="107" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="2"/>
@@ -36049,18 +36422,18 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
